--- a/probspec/summary.xlsx
+++ b/probspec/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="60" windowWidth="10780" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7540" yWindow="0" windowWidth="17400" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
